--- a/C# code school cheat sheet.xlsx
+++ b/C# code school cheat sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Try C#</t>
   </si>
@@ -168,13 +168,386 @@
   </si>
   <si>
     <t>CONDITIONALS</t>
+  </si>
+  <si>
+    <t>Getting Classy with C#</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : keyword can be applied to a variable, method or class. It has only one instance per class, the counter is shared. In instances the counter resets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the advantage of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is, when public, they can be used by other classes without having to create an instance of the class</t>
+    </r>
+  </si>
+  <si>
+    <t>Classes and Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance </t>
+  </si>
+  <si>
+    <t>Namespace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using directive : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using System;</t>
+    </r>
+  </si>
+  <si>
+    <t>givesaccess to our System
+Namespace, letting our Compiler know where to
+find Console</t>
+  </si>
+  <si>
+    <t>create an instance of an object</t>
+  </si>
+  <si>
+    <t>ClassName variableName = new ClassName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Modifiers / Encapsulation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> private (default) , protected, internal, public,</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>object initializer</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Groups of Objects</t>
+  </si>
+  <si>
+    <r>
+      <t>Arrays  [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>arrayType[] arrayName = new arrayType</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/dotnet/csharp/programming-guide/arrays/single-dimensional-arrays</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variying size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">arrayType[] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arrayName = new</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> arrayType[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">need directive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using.System.Collections.Generic;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Or use var : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var variableName = new ClassName()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;listType&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> listName = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;listType&gt;()</t>
+    </r>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Venue.cs</t>
+  </si>
+  <si>
+    <t>array declaration</t>
+  </si>
+  <si>
+    <t>list declaration</t>
+  </si>
+  <si>
+    <t>adding to list</t>
+  </si>
+  <si>
+    <t>defining array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +563,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,18 +618,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,6 +931,729 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2301875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>117413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12954000"/>
+          <a:ext cx="7175500" cy="3736913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1764470</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17145000"/>
+          <a:ext cx="6638095" cy="3285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1072464</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="17145000"/>
+          <a:ext cx="5485714" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5897657</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1231149</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>177333</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17502282" y="17208500"/>
+          <a:ext cx="6033242" cy="3733333"/>
+          <a:chOff x="16200532" y="17208500"/>
+          <a:chExt cx="6033242" cy="3733333"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Picture 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16224250" y="17208500"/>
+            <a:ext cx="6009524" cy="3733333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16200532" y="18256251"/>
+            <a:ext cx="5975742" cy="2079626"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742539</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22399625" y="17240251"/>
+          <a:ext cx="6489289" cy="3714749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1872464</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>110780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="21161375"/>
+          <a:ext cx="6285714" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113387</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>104268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24622125"/>
+          <a:ext cx="7304762" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2301562</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7540624" y="24923750"/>
+          <a:ext cx="6365563" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2888339</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>167786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7207250" y="24638000"/>
+          <a:ext cx="7285714" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1151673</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>37619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="34861500"/>
+          <a:ext cx="6819048" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1329417</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>66190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11604625" y="34861500"/>
+          <a:ext cx="7266667" cy="3876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>716869</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>75982</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19954875" y="35480625"/>
+          <a:ext cx="5447619" cy="1742857"/>
+          <a:chOff x="19954875" y="35480625"/>
+          <a:chExt cx="5447619" cy="1742857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Picture 21"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19954875" y="35480625"/>
+            <a:ext cx="5447619" cy="1742857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20161249" y="36877624"/>
+            <a:ext cx="1539875" cy="335211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20980399" y="36871274"/>
+            <a:ext cx="1539875" cy="335211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2413000</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>961167</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>82357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14017625" y="22923500"/>
+          <a:ext cx="6866667" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21129625" y="34766250"/>
+          <a:ext cx="1238250" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2381249</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3540124</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>99132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27066874" y="35242499"/>
+          <a:ext cx="5921375" cy="3909133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21113750" y="34671000"/>
+          <a:ext cx="6762750" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -807,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,8 +1957,9 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" customWidth="1"/>
     <col min="5" max="5" width="89.140625" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -888,10 +2028,159 @@
         <v>9</v>
       </c>
     </row>
+    <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G183" s="7"/>
+      <c r="H183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L192" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L193" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L198" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L199" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C182" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/C# code school cheat sheet.xlsx
+++ b/C# code school cheat sheet.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="C#" sheetId="1" r:id="rId1"/>
+    <sheet name=".net" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Try C#</t>
   </si>
@@ -541,13 +540,329 @@
   </si>
   <si>
     <t>defining array</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>LOOPS</t>
+  </si>
+  <si>
+    <t>(break)</t>
+  </si>
+  <si>
+    <t>do while</t>
+  </si>
+  <si>
+    <t>while (i &lt; 10) 
+  i++;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">do 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  i++; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (i &lt; 10);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (i = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i &lt;= 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i += 2) 
+  Console.WriteLine(i);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>foreach (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> numArray/list</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  sum += i;</t>
+    </r>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>foreach</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 5 </t>
+  </si>
+  <si>
+    <t>Method Overloading (Polymorphism)</t>
+  </si>
+  <si>
+    <t>Overloading means:</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> nums = {1, 2, 3};</t>
+    </r>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; nums.Length; i++)</t>
+  </si>
+  <si>
+    <t>  Console.WriteLine(nums[i]);</t>
+  </si>
+  <si>
+    <t>string[] names = new string[5];</t>
+  </si>
+  <si>
+    <t>names[0] = "David";</t>
+  </si>
+  <si>
+    <r>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[,]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> twoD = new float[rows, cols];</t>
+    </r>
+  </si>
+  <si>
+    <t>twoD[2,0] = 4.5f;</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[][]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> jagged = new int[3][] {</t>
+    </r>
+  </si>
+  <si>
+    <t>    new int[5], new int[2], new int[3] }; </t>
+  </si>
+  <si>
+    <t>jagged[0][4] = 5;</t>
+  </si>
+  <si>
+    <t>Array declarations</t>
+  </si>
+  <si>
+    <t>overriding: if pass in an array of bandnames, add the band names in the array</t>
+  </si>
+  <si>
+    <t>if you pass in a single bandname, just add that single band name</t>
+  </si>
+  <si>
+    <t>Program.cs</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/dotnet/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +903,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -622,7 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,6 +966,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1631,6 +1973,584 @@
         <a:xfrm>
           <a:off x="21113750" y="34671000"/>
           <a:ext cx="6762750" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1444625</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662774</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>186887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444625" y="41259125"/>
+          <a:ext cx="6409524" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3447619</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>120268</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Group 34"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7889875" y="41259125"/>
+          <a:ext cx="7162369" cy="3057143"/>
+          <a:chOff x="7889875" y="41259125"/>
+          <a:chExt cx="7162369" cy="3057143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="Picture 33"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7889875" y="41259125"/>
+            <a:ext cx="6266667" cy="3057143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="Picture 30"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11604625" y="43164125"/>
+            <a:ext cx="3447619" cy="1009524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5921375</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1678768</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>171012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17526000" y="41243250"/>
+          <a:ext cx="6457143" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685006</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>104405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="46291500"/>
+          <a:ext cx="6352381" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2263024</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>120250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="46259750"/>
+          <a:ext cx="6009524" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>139061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17541875" y="46101000"/>
+          <a:ext cx="7048500" cy="5854061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198502</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24733250" y="49355375"/>
+          <a:ext cx="4913377" cy="3302000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2063750</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19700875" y="47942500"/>
+          <a:ext cx="7048500" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19367500" y="48275875"/>
+          <a:ext cx="0" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>51109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24685625" y="52847875"/>
+          <a:ext cx="5111750" cy="2638734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1698625</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1539875</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19240500" y="50085625"/>
+          <a:ext cx="6985000" cy="1825625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1746250</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1301750</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Curved Connector 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="19288125" y="47561500"/>
+          <a:ext cx="6699250" cy="6064250"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 141469"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1698625</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19240500" y="51244500"/>
+          <a:ext cx="7032625" cy="3032125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1946,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView topLeftCell="A227" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,12 +3029,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>29</v>
       </c>
@@ -2126,7 +3046,7 @@
       </c>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>30</v>
       </c>
@@ -2144,66 +3064,198 @@
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J185" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G186" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M190" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M191" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L192" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="M192" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L193" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="M193" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M195" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M196" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L198" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="M198" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L199" t="s">
         <v>42</v>
+      </c>
+      <c r="M199" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M201" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M202" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M203" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D234" s="10"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="D236" s="10"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F239" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I249" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I256" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C182" r:id="rId1"/>
+    <hyperlink ref="B264" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="66.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>